--- a/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,46%</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,87%</t>
+          <t>-11,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,87%</t>
+          <t>-8,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-9,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-8,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-26,55%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,98</t>
+          <t>-10,45; 6,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 2,61</t>
+          <t>-10,03; 6,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 2,75</t>
+          <t>-10,9; 6,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 3,18</t>
+          <t>-9,63; 6,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,16; 21,68</t>
+          <t>-30,68; 3,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 18,24</t>
+          <t>-42,21; 40,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 22,44</t>
+          <t>-41,35; 48,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 24,55</t>
+          <t>-42,59; 44,21</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-42,87; 49,69</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-62,8; 16,68</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,93</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>15,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,19</t>
+          <t>13,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>118,35%</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>146,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>119,43%</t>
+          <t>152,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118,86%</t>
+          <t>157,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>131,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,07%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 18,43</t>
+          <t>5,67; 23,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 18,75</t>
+          <t>6,0; 24,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 19,52</t>
+          <t>6,81; 24,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 19,09</t>
+          <t>5,26; 22,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,17; 262,13</t>
+          <t>0,8; 26,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 211,37</t>
+          <t>34,13; 380,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,39; 276,14</t>
+          <t>37,07; 403,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 269,08</t>
+          <t>45,11; 467,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28,9; 379,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 181,32</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-16,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-41,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>-42,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,63%</t>
+          <t>-38,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-48,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-49,03%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 14,91</t>
+          <t>-51,9; 14,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 15,51</t>
+          <t>-53,61; 15,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 15,76</t>
+          <t>-49,7; 15,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 12,05</t>
+          <t>-53,61; 11,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-84,53; 364,79</t>
+          <t>-60,66; 13,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,86; 387,54</t>
+          <t>-97,41; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,35; 466,02</t>
+          <t>-97,81; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,88; 186,29</t>
+          <t>-97,09; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-97,33; 196,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-96,17; 206,48</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21,02%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-5,32%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,32</t>
+          <t>-4,94; 9,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 7,74</t>
+          <t>-4,7; 10,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 8,58</t>
+          <t>-3,33; 10,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 7,66</t>
+          <t>-4,44; 9,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 58,64</t>
+          <t>-14,87; 8,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 62,62</t>
+          <t>-25,23; 67,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 74,27</t>
+          <t>-22,94; 78,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 65,3</t>
+          <t>-16,88; 85,41</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; 80,64</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,05; 39,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,83</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-8,09</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-11,69%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-8,66%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,57%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-8,12%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-26,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.376234951528664</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3703548273170792</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.481586529141174</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.183196375497103</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-8.768564560909168</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.116874381758938</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.01992258164933779</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.07681814987619509</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.064192809940202</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2860201086994287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; 6,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 6,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 6,17</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 6,46</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-30,68; 3,51</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-42,21; 40,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-41,35; 48,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-42,59; 44,21</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-42,87; 49,69</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-62,8; 16,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.44926311573774</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.776528164951985</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.40843874431713</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.588751232007377</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-30.85816476807713</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4221029455514146</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3915840317711821</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4266579369355569</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4152493266782964</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6446137694979411</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.068194292683409</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.280259315252614</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.590902109271434</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.861980963841248</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.654150258464096</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4028040843110004</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5639595563704617</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4590064903221581</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5121904727519422</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1188024018301571</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,97</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,02</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>146,68%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>152,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>157,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>131,93%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>56,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 23,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 24,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 24,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,26; 22,66</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 26,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>34,13; 380,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>37,07; 403,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>45,11; 467,22</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>28,9; 379,83</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 181,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.41577466867001</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>14.96904181497471</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.67979511629643</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.65510602619932</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.79525925986654</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.466766600205251</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.471254575897373</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.460507856479685</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.262580111886745</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.545669424142773</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-10,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-11,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,47</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-14,36</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-16,11</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-41,56%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-42,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-38,65%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-48,92%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-49,03%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.669869718870716</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.339478598867244</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.81924616207703</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.808535786385349</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1796986449731326</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.341292317533371</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.3282704661475593</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3847184636433282</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.2623054455106718</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.01103567953393358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-51,9; 14,83</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-53,61; 15,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-49,7; 15,16</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-53,61; 11,57</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-60,66; 13,63</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-97,41; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-97,81; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-97,09; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-97,33; 196,47</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-96,17; 206,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>23.27759687416594</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.09504244267838</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.24967729535396</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>22.71218100433583</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>23.88038085273724</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.80601179229612</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.133849531247236</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.630118207432961</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.539694560748121</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.647956826067318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,227 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20,89%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>27,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>21,02%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-5,32%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-10.81709483325757</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-12.08507128800773</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.680004541708647</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-12.85467939578785</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-15.3242645162576</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4155603982699653</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4419040958722453</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2702831477317069</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4556703006370286</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4741938397111345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 9,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 10,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 10,23</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 9,82</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-14,87; 8,15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,23; 67,9</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-22,94; 78,15</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-16,88; 85,41</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-21,04; 80,64</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-42,05; 39,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-51.90098448673811</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-53.505855552836</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-44.45643902545544</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-51.63324229693595</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-60.67765352644319</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9740603969819478</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9809682418825163</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9717353770609261</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.9749733517977108</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.9657818211908563</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.82946500199437</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.25546921037348</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.62821913913741</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.30539747972649</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>14.29507162863177</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>2.140764541139488</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.189835984942317</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.496555155876893</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.736087856170842</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.795696395455251</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.692402270924558</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.699027564288408</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2089483759856916</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2968835856920587</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3094851547090616</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2269298625133567</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0640441555155149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.935037642205891</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.882288925120438</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.401294681998422</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.817388239118092</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-15.37744491077141</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2522786732063705</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1958135286225709</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1179729194058917</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1895527103920762</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4286644471364292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.137829738659514</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.80498822107747</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.588265583149</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.47611259848948</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.568647654054677</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6789657558096773</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8437895625829397</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.877914279745766</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8354108153420917</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3780893638588472</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1107,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
